--- a/cards_database.xlsx
+++ b/cards_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E661"/>
+  <dimension ref="A1:E686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WU</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WU</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,11 @@
           <t>Creatures</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1875,7 +1879,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1906,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1956,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1983,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2010,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2037,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2064,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2114,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2164,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WU</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2191,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2218,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2245,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2272,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WU</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2299,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2326,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2351,11 @@
           <t>Cityland</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>WUBRG</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2370,7 +2378,11 @@
           <t>Cyclingland</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2393,7 +2405,11 @@
           <t>Cyclingland</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2485,7 +2501,11 @@
           <t>Mana Denial</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2508,7 +2528,11 @@
           <t>Mana Denial</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2531,7 +2555,11 @@
           <t>Mana Denial</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2554,7 +2582,11 @@
           <t>Manland</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2577,7 +2609,11 @@
           <t>Manland</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2600,7 +2636,11 @@
           <t>Manland</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2623,7 +2663,11 @@
           <t>Other</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2669,7 +2713,11 @@
           <t>Painland</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>CWU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2761,7 +2809,11 @@
           <t>Tappedland</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>WU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2786,7 +2838,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2865,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2892,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2919,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2969,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2996,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -2994,7 +3046,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3073,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3123,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3150,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3177,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3204,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3231,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3258,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3285,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3312,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3339,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3366,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3393,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3420,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3447,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3474,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3501,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3476,7 +3528,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3601,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3628,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3655,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3682,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3709,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3736,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3763,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3790,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3817,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3844,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3871,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3898,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3925,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3952,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3979,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3954,7 +4006,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3981,7 +4033,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4008,7 +4060,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4087,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4114,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>BG</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4141,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4114,7 +4166,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>CBG</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4137,7 +4193,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4160,7 +4220,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4231,7 +4295,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4322,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4347,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4308,7 +4376,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4403,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4430,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4457,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4482,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4437,7 +4509,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>WUBRG</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4462,7 +4538,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4565,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4590,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>CBG</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4539,7 +4619,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4646,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4673,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4700,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4727,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WG</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4754,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4804,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4831,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4856,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>CWB</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4801,7 +4885,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4935,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4960,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>CG</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4901,7 +4989,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>BG</t>
         </is>
       </c>
     </row>
@@ -4928,7 +5016,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4955,7 +5043,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4982,7 +5070,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5097,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5034,7 +5122,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>WUBRG</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5128,7 +5220,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5247,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5274,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5301,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5328,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5263,7 +5355,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -5290,7 +5382,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5409,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5344,7 +5436,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5490,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5517,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5452,7 +5544,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5569,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5502,7 +5598,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5623,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>CWB</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5552,7 +5652,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
@@ -5579,7 +5679,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5706,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5733,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5760,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5787,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5814,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5841,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5868,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5795,7 +5895,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5922,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5949,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5976,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5903,7 +6003,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -5930,7 +6030,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5957,7 +6057,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5984,7 +6084,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6111,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6138,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6165,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6192,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6119,7 +6219,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -6146,7 +6246,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -6173,7 +6273,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -6200,7 +6300,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6327,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6254,7 +6354,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6381,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6308,7 +6408,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6435,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6462,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6489,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6516,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6443,7 +6543,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -6470,7 +6570,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6597,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6524,7 +6624,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6651,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6678,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -6605,7 +6705,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6732,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -6659,7 +6759,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6786,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6813,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -6740,7 +6840,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -6767,7 +6867,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6894,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6921,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6948,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -6875,7 +6975,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WU</t>
         </is>
       </c>
     </row>
@@ -6902,7 +7002,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -6929,7 +7029,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -6956,7 +7056,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -6983,7 +7083,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7110,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7037,7 +7137,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7164,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7191,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7118,7 +7218,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7145,7 +7245,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7172,7 +7272,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7199,7 +7299,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7226,7 +7326,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7353,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7278,7 +7378,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7303,7 +7407,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7457,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7530,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7453,7 +7557,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7480,7 +7584,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7505,7 +7609,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7528,7 +7636,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>CWR</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7551,7 +7663,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>CBR</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7599,7 +7715,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7742,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7769,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7794,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7703,7 +7823,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>RG</t>
         </is>
       </c>
     </row>
@@ -7730,7 +7850,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7757,7 +7877,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7904,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7931,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7838,7 +7958,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7985,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7892,7 +8012,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7919,7 +8039,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7944,7 +8064,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr"/>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>WUBRG</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7969,7 +8093,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -7996,7 +8120,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8170,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8197,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8100,7 +8224,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8127,7 +8251,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8278,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8305,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8332,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8359,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8386,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8413,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8440,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8467,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -8370,7 +8494,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8521,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8424,7 +8548,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8575,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8602,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -8505,7 +8629,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8656,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8683,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8710,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8737,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8764,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8667,7 +8791,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
@@ -8694,7 +8818,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8845,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8748,7 +8872,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8899,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -8802,7 +8926,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WG</t>
         </is>
       </c>
     </row>
@@ -8829,7 +8953,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8980,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -8883,7 +9007,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -8908,7 +9032,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr"/>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>WRG</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8933,7 +9061,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -8960,7 +9088,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -8985,7 +9113,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E326" t="inlineStr"/>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>WUG</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9010,7 +9142,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9167,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>CWG</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9058,7 +9194,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E329" t="inlineStr"/>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>CUG</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9083,7 +9223,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -9108,7 +9248,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9133,7 +9277,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -9160,7 +9304,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -9187,7 +9331,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -9214,7 +9358,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9385,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9412,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9439,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -9322,7 +9466,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -9349,7 +9493,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -9376,7 +9520,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9547,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -9430,7 +9574,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -9457,7 +9601,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9628,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9655,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -9538,7 +9682,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9709,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9736,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -9619,7 +9763,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9813,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9840,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9867,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -9750,7 +9894,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9921,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -9802,7 +9946,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -9827,7 +9975,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -9852,7 +10000,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E359" t="inlineStr"/>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>CWUBRG</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -9877,7 +10029,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -9904,7 +10056,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -9931,7 +10083,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -9981,7 +10133,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10160,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -10035,7 +10187,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -10062,7 +10214,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -10089,7 +10241,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -10114,7 +10266,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10139,7 +10295,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -10166,7 +10322,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -10193,7 +10349,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10220,7 +10376,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WRG</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10401,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10270,7 +10430,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>UBR</t>
         </is>
       </c>
     </row>
@@ -10297,7 +10457,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10484,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WUB</t>
         </is>
       </c>
     </row>
@@ -10372,7 +10532,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E379" t="inlineStr"/>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10397,7 +10561,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WG</t>
         </is>
       </c>
     </row>
@@ -10424,7 +10588,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WUG</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10615,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>BRG</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10642,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10503,7 +10667,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>RG</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10528,7 +10696,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10723,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -10580,7 +10748,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E387" t="inlineStr"/>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>CWUBRG</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10605,7 +10777,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10632,7 +10804,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -10659,7 +10831,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10858,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10885,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10740,7 +10912,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10939,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10794,7 +10966,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10993,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10848,7 +11020,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10875,7 +11047,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10902,7 +11074,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -10929,7 +11101,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -10956,7 +11128,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -10983,7 +11155,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -11010,7 +11182,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -11035,7 +11207,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>CUR</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -11058,7 +11234,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E405" t="inlineStr"/>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11127,7 +11307,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E408" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11171,7 +11355,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11382,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -11225,7 +11409,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -11252,7 +11436,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -11279,7 +11463,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -11306,7 +11490,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11517,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -11360,7 +11544,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -11387,7 +11571,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -11414,7 +11598,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WG</t>
         </is>
       </c>
     </row>
@@ -11439,7 +11623,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E420" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -11464,7 +11652,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -11489,7 +11677,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E422" t="inlineStr"/>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -11514,7 +11706,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11733,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -11568,7 +11760,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11810,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>UB</t>
         </is>
       </c>
     </row>
@@ -11645,7 +11837,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -11672,7 +11864,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -11699,7 +11891,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -11726,7 +11918,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -11753,7 +11945,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -11780,7 +11972,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -11807,7 +11999,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -11834,7 +12026,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -11861,7 +12053,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -11888,7 +12080,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -11915,7 +12107,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>BR</t>
         </is>
       </c>
     </row>
@@ -11942,7 +12134,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -11969,7 +12161,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -11996,7 +12188,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12215,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -12050,7 +12242,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -12077,7 +12269,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WG</t>
         </is>
       </c>
     </row>
@@ -12104,7 +12296,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -12131,7 +12323,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WU</t>
         </is>
       </c>
     </row>
@@ -12158,7 +12350,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WG</t>
         </is>
       </c>
     </row>
@@ -12185,7 +12377,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -12212,7 +12404,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12431,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12477,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WUR</t>
         </is>
       </c>
     </row>
@@ -12312,7 +12504,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -12339,7 +12531,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12558,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12585,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -12420,7 +12612,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -12447,7 +12639,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12666,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -12501,7 +12693,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -12528,7 +12720,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -12555,7 +12747,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -12582,7 +12774,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -12609,7 +12801,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12828,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -12663,7 +12855,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12882,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12909,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12936,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12963,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -12798,7 +12990,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -12825,7 +13017,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -12852,7 +13044,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -12879,7 +13071,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Colorless</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -12906,7 +13098,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -12931,7 +13123,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E476" t="inlineStr"/>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>WUBRG</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -12956,7 +13152,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -12983,7 +13179,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -13010,7 +13206,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -13037,7 +13233,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -13064,7 +13260,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13287,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13314,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WRG</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13341,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13172,7 +13368,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -13199,7 +13395,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -13226,7 +13422,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13449,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -13280,7 +13476,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>RG</t>
         </is>
       </c>
     </row>
@@ -13307,7 +13503,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -13334,7 +13530,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13359,7 +13555,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>WUB</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -13384,7 +13584,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13411,7 +13611,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13438,7 +13638,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13465,7 +13665,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WG</t>
         </is>
       </c>
     </row>
@@ -13492,7 +13692,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13519,7 +13719,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13546,7 +13746,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13573,7 +13773,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -13600,7 +13800,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WG</t>
         </is>
       </c>
     </row>
@@ -13627,7 +13827,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13654,7 +13854,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>Multicolored</t>
+          <t>WG</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13881,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13708,7 +13908,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13935,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13762,7 +13962,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -13789,7 +13989,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13816,7 +14016,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -13843,7 +14043,7 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -13870,7 +14070,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -13887,7 +14087,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -13897,7 +14097,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -13914,7 +14114,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -13924,7 +14124,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -13941,7 +14141,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -13951,7 +14151,7 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -13968,7 +14168,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -13978,7 +14178,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -13995,7 +14195,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -14005,7 +14205,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14222,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -14032,7 +14232,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -14049,7 +14249,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -14059,7 +14259,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14276,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -14086,7 +14286,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14103,7 +14303,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -14113,7 +14313,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14130,7 +14330,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -14140,7 +14340,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14357,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -14167,7 +14367,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14184,7 +14384,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -14194,7 +14394,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14411,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -14221,7 +14421,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14238,7 +14438,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -14248,7 +14448,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -14265,7 +14465,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact Creature</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -14273,11 +14473,7 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="E526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -14292,7 +14488,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -14302,7 +14498,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14319,7 +14515,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -14329,7 +14525,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14542,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -14356,7 +14552,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14569,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -14383,7 +14579,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14400,7 +14596,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -14410,7 +14606,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14623,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -14437,7 +14633,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14650,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -14464,7 +14660,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14481,7 +14677,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -14491,7 +14687,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14508,7 +14704,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -14518,7 +14714,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14535,7 +14731,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -14545,7 +14741,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14562,7 +14758,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact Creature</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -14570,11 +14766,7 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="E537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -14589,7 +14781,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact Creature</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -14597,11 +14789,7 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="E538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -14616,7 +14804,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -14626,7 +14814,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -14643,7 +14831,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -14653,7 +14841,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14670,7 +14858,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -14680,7 +14868,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14697,7 +14885,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -14707,7 +14895,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14724,7 +14912,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -14734,7 +14922,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -14751,7 +14939,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -14761,7 +14949,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14778,7 +14966,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -14788,7 +14976,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14805,7 +14993,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -14815,7 +15003,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -14832,7 +15020,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -14842,7 +15030,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14859,7 +15047,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -14869,7 +15057,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14886,7 +15074,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -14896,7 +15084,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14913,7 +15101,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -14923,7 +15111,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14940,7 +15128,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -14950,7 +15138,7 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -14967,7 +15155,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -14977,7 +15165,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -14994,7 +15182,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -15004,7 +15192,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -15021,7 +15209,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -15031,7 +15219,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -15048,7 +15236,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -15056,11 +15244,7 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="E555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -15075,7 +15259,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -15085,7 +15269,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -15102,7 +15286,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -15112,7 +15296,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -15129,7 +15313,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -15139,7 +15323,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15340,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -15166,7 +15350,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -15183,7 +15367,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -15193,7 +15377,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -15210,7 +15394,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -15220,7 +15404,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -15237,7 +15421,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -15247,7 +15431,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -15264,7 +15448,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -15274,7 +15458,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15475,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -15301,7 +15485,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>BRG</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15502,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -15328,7 +15512,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15529,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -15355,7 +15539,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15372,7 +15556,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -15382,7 +15566,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15399,7 +15583,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -15409,7 +15593,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15610,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -15436,7 +15620,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -15453,7 +15637,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -15463,7 +15647,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15480,7 +15664,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -15490,7 +15674,7 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -15507,7 +15691,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -15517,7 +15701,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -15534,7 +15718,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -15544,7 +15728,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -15561,7 +15745,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -15571,7 +15755,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15588,7 +15772,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -15598,7 +15782,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15615,7 +15799,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -15625,7 +15809,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15642,7 +15826,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -15652,7 +15836,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -15669,7 +15853,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -15679,7 +15863,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -15696,7 +15880,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -15706,7 +15890,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -15723,7 +15907,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -15733,7 +15917,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15748,21 +15932,13 @@
           <t>Squee</t>
         </is>
       </c>
-      <c r="C581" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="C581" t="inlineStr"/>
       <c r="D581" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="E581" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="E581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -15777,7 +15953,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -15787,7 +15963,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15980,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -15814,7 +15990,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15831,7 +16007,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -15841,7 +16017,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15858,7 +16034,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -15868,7 +16044,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15885,7 +16061,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -15895,7 +16071,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15912,7 +16088,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -15922,7 +16098,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15939,7 +16115,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -15949,7 +16125,7 @@
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15966,7 +16142,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -15976,7 +16152,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -15993,7 +16169,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -16001,11 +16177,7 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E590" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="E590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -16020,7 +16192,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -16030,7 +16202,7 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16047,7 +16219,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -16057,7 +16229,7 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>RG</t>
         </is>
       </c>
     </row>
@@ -16074,7 +16246,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -16084,7 +16256,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>RG</t>
         </is>
       </c>
     </row>
@@ -16101,7 +16273,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -16111,7 +16283,7 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16128,7 +16300,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -16138,7 +16310,7 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -16155,7 +16327,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -16165,7 +16337,7 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -16182,7 +16354,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -16192,7 +16364,7 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -16209,7 +16381,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -16219,7 +16391,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -16236,7 +16408,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -16246,7 +16418,7 @@
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16435,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -16273,7 +16445,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -16290,7 +16462,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -16300,7 +16472,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -16317,7 +16489,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -16327,7 +16499,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -16344,7 +16516,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -16354,7 +16526,7 @@
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16371,7 +16543,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -16381,7 +16553,7 @@
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -16398,7 +16570,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -16408,7 +16580,7 @@
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>CRG</t>
         </is>
       </c>
     </row>
@@ -16425,7 +16597,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -16435,7 +16607,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16452,7 +16624,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -16462,7 +16634,7 @@
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>RG</t>
         </is>
       </c>
     </row>
@@ -16479,7 +16651,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -16489,7 +16661,7 @@
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16678,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -16516,7 +16688,7 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -16533,7 +16705,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -16543,7 +16715,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16560,7 +16732,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -16570,7 +16742,7 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16587,7 +16759,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -16597,7 +16769,7 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16614,7 +16786,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -16624,7 +16796,7 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16641,7 +16813,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -16651,7 +16823,7 @@
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16668,7 +16840,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -16678,7 +16850,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -16693,21 +16865,13 @@
           <t>Assault // Battery</t>
         </is>
       </c>
-      <c r="C616" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="E616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -16722,7 +16886,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -16732,7 +16896,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16749,7 +16913,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -16759,7 +16923,7 @@
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16776,7 +16940,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -16786,7 +16950,7 @@
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16803,7 +16967,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -16813,7 +16977,7 @@
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16830,7 +16994,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -16840,7 +17004,7 @@
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -16857,7 +17021,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -16867,7 +17031,7 @@
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16884,7 +17048,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -16894,7 +17058,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -16911,7 +17075,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -16921,7 +17085,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16938,7 +17102,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -16948,7 +17112,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -16965,7 +17129,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -16975,7 +17139,7 @@
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -16992,7 +17156,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -17002,7 +17166,7 @@
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -17019,7 +17183,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -17029,7 +17193,7 @@
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17210,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -17056,7 +17220,7 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -17073,7 +17237,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -17083,7 +17247,7 @@
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -17100,7 +17264,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
@@ -17110,7 +17274,7 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -17127,7 +17291,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -17137,7 +17301,7 @@
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -17154,7 +17318,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -17164,7 +17328,7 @@
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17345,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -17191,7 +17355,7 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -17206,21 +17370,13 @@
           <t>Aether Flash</t>
         </is>
       </c>
-      <c r="C635" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="E635" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="E635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -17235,7 +17391,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -17245,7 +17401,7 @@
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -17262,7 +17418,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
@@ -17272,7 +17428,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -17289,7 +17445,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -17299,7 +17455,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17472,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -17326,7 +17482,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -17343,7 +17499,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -17353,7 +17509,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17370,7 +17526,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -17380,7 +17536,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17397,7 +17553,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -17407,7 +17563,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -17424,7 +17580,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -17434,7 +17590,7 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17451,7 +17607,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Sorcery</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -17461,7 +17617,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17478,7 +17634,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -17488,7 +17644,7 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17661,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -17515,7 +17671,7 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17532,7 +17688,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -17542,7 +17698,7 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -17559,7 +17715,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -17569,7 +17725,7 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17742,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -17594,11 +17750,7 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E649" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="E649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -17613,7 +17765,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -17621,11 +17773,7 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
+      <c r="E650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -17640,7 +17788,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -17650,7 +17798,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17667,7 +17815,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -17677,7 +17825,7 @@
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -17694,7 +17842,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -17704,7 +17852,7 @@
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -17721,7 +17869,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -17731,7 +17879,7 @@
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -17748,7 +17896,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -17758,7 +17906,7 @@
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17923,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -17785,7 +17933,7 @@
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17802,7 +17950,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Enchantment</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -17812,7 +17960,7 @@
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17829,7 +17977,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -17839,7 +17987,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17856,7 +18004,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -17866,7 +18014,7 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -17883,7 +18031,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -17893,7 +18041,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -17910,7 +18058,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Creature</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
@@ -17920,7 +18068,682 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Alexi's Cloak</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Enchantment</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Opt</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Sleight of Hand</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Sorcery</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Boomerang</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Disrupt</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Lim-Dûl's Vault</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>UB</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Flash of Insight</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Reality Ripple</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Peek</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Wonder</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Creature</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Divert</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Doomsday</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Sorcery</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Worldly Tutor</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Sutured Ghoul</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Creature</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Intervene</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Reality Shift</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Crosis's Catacombs</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Land</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>UBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Rushing River</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Voidmage Prodigy</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Creature</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Mystic Veil</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Enchantment</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Massacre</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Sorcery</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Mind Harness</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Enchantment</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Crippling Fatigue</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Sorcery</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Unsummon</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Instant</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Premodern</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Sickening Dreams</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Sorcery</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
